--- a/stage2_excels/GA/GA_color_space.xlsx
+++ b/stage2_excels/GA/GA_color_space.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BV19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +714,96 @@
           <t>xyz_z_75</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_mean</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_median</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_variance</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_std_dev</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_25</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_y_75</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_mean</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_median</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_variance</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_std_dev</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_25</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_u_75</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_mean</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_median</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_variance</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_std_dev</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_25</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>yuv_v_75</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -996,6 +1086,96 @@
           <t>157.0</t>
         </is>
       </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>164.8959850843257</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>613.2283322755437</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>24.763447503842105</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>124.37258847554524</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>73.07829577324392</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>8.548584430959545</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>131.0718037287394</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>50.01187780150411</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>7.071907649390234</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1278,6 +1458,96 @@
           <t>43.0</t>
         </is>
       </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>69.82749431715365</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>1131.7800864375947</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>33.64193939768626</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>119.17062670095316</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>140.86831254136672</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>11.868795749416481</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>139.8080439194962</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>235.62295702171465</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>15.350014886693584</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1560,6 +1830,96 @@
           <t>153.0</t>
         </is>
       </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>157.3742395636669</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>603.0285125064859</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>24.556638868267086</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>126.23806349436443</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>39.12484782414402</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>6.254985837245679</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>129.79143555959067</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>33.31207421048003</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>5.7716613042069635</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1842,6 +2202,96 @@
           <t>53.0</t>
         </is>
       </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>65.32000986781715</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>1554.6748563979202</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>39.42936540698975</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>126.088028271993</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>36.091717665073695</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>6.007638276816747</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>130.97281392415366</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>82.59342989819632</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>9.088092753608775</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2124,6 +2574,96 @@
           <t>121.0</t>
         </is>
       </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>127.9930184696415</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>1474.2380220306354</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>38.39580734963956</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>116.37011528384502</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>224.3214711505171</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>14.977365294020077</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>139.64912215582197</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>214.48752305540023</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>14.64539255381706</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2406,6 +2946,96 @@
           <t>161.0</t>
         </is>
       </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>154.90508266705513</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>783.8468467039286</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>27.99726498613621</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>117.89861506163642</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>144.98038497165638</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>12.040780081525298</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>138.1891388170051</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>111.7593856376652</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>10.571631172040822</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2688,6 +3318,96 @@
           <t>50.0</t>
         </is>
       </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>69.97129509581187</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>1205.8532785132802</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>34.72539817645408</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>119.18571914064259</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>130.6443139480517</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>11.429974363403081</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>141.4154584426911</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>275.55253339364066</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>16.599775100694607</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2970,6 +3690,96 @@
           <t>138.0</t>
         </is>
       </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>149.80062564990328</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>681.7126418030423</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>26.109627377713423</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>125.31965573628743</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>79.29437642872357</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>8.904738987119362</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>130.57684739430746</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>59.85146358300949</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>7.736372766549547</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3252,6 +4062,96 @@
           <t>34.0</t>
         </is>
       </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>71.54639323103399</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>1272.6066192564858</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>35.67361236623628</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>118.00927904678507</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>191.68644003804525</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>13.84508721670056</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>142.47142374727488</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>382.76222173726865</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>19.564309896780635</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3534,6 +4434,96 @@
           <t>124.0</t>
         </is>
       </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>137.06397578462682</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>888.5537392587412</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>29.808618539924677</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>116.28261351052049</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>219.78683318432832</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>14.825209380792176</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>139.24455944572225</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>185.15431595791244</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>13.60714209369155</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3816,6 +4806,96 @@
           <t>150.0</t>
         </is>
       </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>154.17888870252503</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>669.1862034419659</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>25.868633582815423</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>125.8896697362264</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>45.33790740511649</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>6.733342959118931</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>130.12718645731607</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>41.322547741428004</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>6.428261642265971</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4098,6 +5178,96 @@
           <t>144.0</t>
         </is>
       </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>157.72130242287182</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>627.2485987559955</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>25.044931598149667</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>124.4005651473999</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>77.60302075553871</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>8.809257673353567</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>131.3976256052653</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>64.62705076382015</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>8.039095145837008</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4380,6 +5550,96 @@
           <t>44.0</t>
         </is>
       </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>72.8213667040417</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>1086.0849232686103</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>32.955802573577394</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>125.63858032226562</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>56.476498873593904</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>7.515084754917532</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>131.14692974090576</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>93.63746895053286</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>9.676645542259614</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4662,6 +5922,96 @@
           <t>152.0</t>
         </is>
       </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>156.58526826545528</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>807.3982340355473</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>28.41475380916659</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>116.57392084958916</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>201.11730439220088</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>14.181583282278494</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>139.28720358100304</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>151.6190122722358</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>12.31336721909307</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4944,6 +6294,96 @@
           <t>119.0</t>
         </is>
       </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>135.03407748686826</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>1133.3738415948674</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>33.66561809316543</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>124.39188925425212</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>105.67321235046732</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>10.279747679319144</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>131.52151997884116</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>97.3456570890782</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>9.866390276543807</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5226,6 +6666,96 @@
           <t>143.0</t>
         </is>
       </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>151.3998498170306</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>670.68821322316</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>25.897648797200876</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>126.04481919606526</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>46.60446166558746</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>6.826746052519272</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>129.63724835713705</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>30.79283573493937</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>5.549129277187491</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5508,6 +7038,96 @@
           <t>103.0</t>
         </is>
       </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>117.45208119562793</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>780.2514096399237</t>
+        </is>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>27.932980679475</t>
+        </is>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>125.48865667978923</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>64.01310769281541</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>8.000819188859063</t>
+        </is>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BP18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>130.53190898895264</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>58.84541545595001</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>7.671076551302953</t>
+        </is>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV18" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5788,6 +7408,96 @@
       <c r="BD19" t="inlineStr">
         <is>
           <t>86.0</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>88.8200859235754</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>826.5811705849128</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>28.75032470399096</t>
+        </is>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>116.8296035844991</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>141.7173508056759</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>11.904509683547488</t>
+        </is>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="BP19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>141.70834627355748</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>200.00484472901897</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>14.142306909730781</t>
+        </is>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="BV19" t="inlineStr">
+        <is>
+          <t>154.0</t>
         </is>
       </c>
     </row>

--- a/stage2_excels/GA/GA_color_space.xlsx
+++ b/stage2_excels/GA/GA_color_space.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV19"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,92 +536,92 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_mean</t>
+          <t>yuv_y_mean</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_median</t>
+          <t>yuv_y_median</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_variance</t>
+          <t>yuv_y_variance</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_std_dev</t>
+          <t>yuv_y_std_dev</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_25</t>
+          <t>yuv_y_25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>lab_l_75</t>
+          <t>yuv_y_75</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_mean</t>
+          <t>yuv_u_mean</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_median</t>
+          <t>yuv_u_median</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_variance</t>
+          <t>yuv_u_variance</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_std_dev</t>
+          <t>yuv_u_std_dev</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_25</t>
+          <t>yuv_u_25</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>lab_a_75</t>
+          <t>yuv_u_75</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_mean</t>
+          <t>yuv_v_mean</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_median</t>
+          <t>yuv_v_median</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_variance</t>
+          <t>yuv_v_variance</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>yuv_v_std_dev</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_25</t>
+          <t>yuv_v_25</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>lab_b_75</t>
+          <t>yuv_v_75</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -712,96 +712,6 @@
       <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>xyz_z_75</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_mean</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_median</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_variance</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_std_dev</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_25</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_y_75</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_mean</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_median</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_variance</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_std_dev</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_25</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_u_75</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_mean</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_median</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_variance</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_std_dev</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_25</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>yuv_v_75</t>
         </is>
       </c>
     </row>
@@ -908,104 +818,104 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>173.16433121259746</t>
+          <t>164.8959850843257</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>178.0</t>
+          <t>170.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>573.5597898938041</t>
+          <t>613.2283322755437</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>23.949108331915077</t>
+          <t>24.763447503842105</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>124.37258847554524</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>73.07829577324392</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>8.548584430959545</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>131.0718037287394</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>50.01187780150411</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>7.071907649390234</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>156.64734517620747</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
           <t>161.0</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>190.0</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>128.41499201456705</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>3.8156089288709745</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1.95335837184859</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>132.15774472554526</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>96.0937327056879</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>9.802741081232734</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>156.64734517620747</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>161.0</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
           <t>531.1120771038178</t>
@@ -1084,96 +994,6 @@
       <c r="BD2" t="inlineStr">
         <is>
           <t>157.0</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>164.8959850843257</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>170.0</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>613.2283322755437</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>24.763447503842105</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>152.0</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>182.0</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>124.37258847554524</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>73.07829577324392</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>8.548584430959545</t>
-        </is>
-      </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>131.0718037287394</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>50.01187780150411</t>
-        </is>
-      </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>7.071907649390234</t>
-        </is>
-      </c>
-      <c r="BU2" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -1280,37 +1100,37 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>76.80287897830232</t>
+          <t>69.82749431715365</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>70.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1261.3206536732246</t>
+          <t>1131.7800864375947</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>35.51507642781055</t>
+          <t>33.64193939768626</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>97.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>134.17780352506261</t>
+          <t>119.17062670095316</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1320,27 +1140,27 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>76.60247623776777</t>
+          <t>140.86831254136672</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>8.752284058334018</t>
+          <t>11.868795749416481</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>139.34160453281876</t>
+          <t>139.8080439194962</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1350,12 +1170,12 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>224.86271048337662</t>
+          <t>235.62295702171465</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>14.99542298447685</t>
+          <t>15.350014886693584</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1456,96 +1276,6 @@
       <c r="BD3" t="inlineStr">
         <is>
           <t>43.0</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>69.82749431715365</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>1131.7800864375947</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>33.64193939768626</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>119.17062670095316</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>140.86831254136672</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>11.868795749416481</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="BP3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ3" t="inlineStr">
-        <is>
-          <t>139.8080439194962</t>
-        </is>
-      </c>
-      <c r="BR3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t>235.62295702171465</t>
-        </is>
-      </c>
-      <c r="BT3" t="inlineStr">
-        <is>
-          <t>15.350014886693584</t>
-        </is>
-      </c>
-      <c r="BU3" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV3" t="inlineStr">
-        <is>
-          <t>153.0</t>
         </is>
       </c>
     </row>
@@ -1652,37 +1382,37 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>165.59580842248795</t>
+          <t>157.3742395636669</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>166.0</t>
+          <t>158.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>583.8408050130148</t>
+          <t>603.0285125064859</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>24.162797954976465</t>
+          <t>24.556638868267086</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>144.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>179.0</t>
+          <t>171.0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>128.43148040771484</t>
+          <t>126.23806349436443</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1692,12 +1422,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>5.47033787186956</t>
+          <t>39.12484782414402</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2.3388753433797107</t>
+          <t>6.254985837245679</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1712,7 +1442,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>130.0172265370687</t>
+          <t>129.79143555959067</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1722,12 +1452,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>51.43393405086377</t>
+          <t>33.31207421048003</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>7.17174553723595</t>
+          <t>5.7716613042069635</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1828,96 +1558,6 @@
       <c r="BD4" t="inlineStr">
         <is>
           <t>153.0</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>157.3742395636669</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>158.0</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>603.0285125064859</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>24.556638868267086</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>171.0</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>126.23806349436443</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>39.12484782414402</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>6.254985837245679</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>129.79143555959067</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>33.31207421048003</t>
-        </is>
-      </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>5.7716613042069635</t>
-        </is>
-      </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV4" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -2024,37 +1664,37 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>71.06647007527079</t>
+          <t>65.32000986781715</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1734.796498518152</t>
+          <t>1554.6748563979202</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>41.65088832807953</t>
+          <t>39.42936540698975</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>129.68236192067465</t>
+          <t>126.088028271993</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -2064,12 +1704,12 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>30.178856556645623</t>
+          <t>36.091717665073695</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>5.4935286070653735</t>
+          <t>6.007638276816747</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -2084,7 +1724,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>130.49379126230875</t>
+          <t>130.97281392415366</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -2094,12 +1734,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>60.986404017493946</t>
+          <t>82.59342989819632</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>7.80937923381199</t>
+          <t>9.088092753608775</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -2200,96 +1840,6 @@
       <c r="BD5" t="inlineStr">
         <is>
           <t>53.0</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>65.32000986781715</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>1554.6748563979202</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>39.42936540698975</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>126.088028271993</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>36.091717665073695</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>6.007638276816747</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>130.97281392415366</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>82.59342989819632</t>
-        </is>
-      </c>
-      <c r="BT5" t="inlineStr">
-        <is>
-          <t>9.088092753608775</t>
-        </is>
-      </c>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -2396,67 +1946,67 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>137.43720292531407</t>
+          <t>127.9930184696415</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1445.2657240092744</t>
+          <t>1474.2380220306354</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>38.01665061534583</t>
+          <t>38.39580734963956</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>116.37011528384502</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>224.3214711505171</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>14.977365294020077</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
           <t>104.0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>173.0</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>131.73178298939317</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>45.31761842844622</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>6.731836185502899</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>141.82405998292566</t>
+          <t>139.64912215582197</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -2466,12 +2016,12 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>308.49552122870415</t>
+          <t>214.48752305540023</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>17.564040572394045</t>
+          <t>14.64539255381706</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -2481,7 +2031,7 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>157.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -2572,96 +2122,6 @@
       <c r="BD6" t="inlineStr">
         <is>
           <t>121.0</t>
-        </is>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>127.9930184696415</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>1474.2380220306354</t>
-        </is>
-      </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>38.39580734963956</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>164.0</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>116.37011528384502</t>
-        </is>
-      </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>224.3214711505171</t>
-        </is>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>14.977365294020077</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="BP6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ6" t="inlineStr">
-        <is>
-          <t>139.64912215582197</t>
-        </is>
-      </c>
-      <c r="BR6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>214.48752305540023</t>
-        </is>
-      </c>
-      <c r="BT6" t="inlineStr">
-        <is>
-          <t>14.64539255381706</t>
-        </is>
-      </c>
-      <c r="BU6" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV6" t="inlineStr">
-        <is>
-          <t>153.0</t>
         </is>
       </c>
     </row>
@@ -2768,124 +2228,124 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>163.17808718043904</t>
+          <t>154.90508266705513</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>783.8468467039286</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>27.99726498613621</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>117.89861506163642</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>144.98038497165638</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>12.040780081525298</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>138.1891388170051</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>111.7593856376652</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>10.571631172040822</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>147.97254377700455</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>700.1566906548238</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>26.460474119993084</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
           <t>168.0</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>724.2539180164069</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>26.911966074897</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>148.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>183.0</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>130.56236416428814</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>18.5982240124896</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>4.312565827032627</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>139.61849561255275</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>191.98407466676485</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>13.855831792670005</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>149.0</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>147.97254377700455</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>700.1566906548238</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>26.460474119993084</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>168.0</t>
-        </is>
-      </c>
       <c r="AS7" t="inlineStr">
         <is>
           <t>154.14588967231563</t>
@@ -2944,96 +2404,6 @@
       <c r="BD7" t="inlineStr">
         <is>
           <t>161.0</t>
-        </is>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>154.90508266705513</t>
-        </is>
-      </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>159.0</t>
-        </is>
-      </c>
-      <c r="BG7" t="inlineStr">
-        <is>
-          <t>783.8468467039286</t>
-        </is>
-      </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>27.99726498613621</t>
-        </is>
-      </c>
-      <c r="BI7" t="inlineStr">
-        <is>
-          <t>139.0</t>
-        </is>
-      </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>176.0</t>
-        </is>
-      </c>
-      <c r="BK7" t="inlineStr">
-        <is>
-          <t>117.89861506163642</t>
-        </is>
-      </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>121.0</t>
-        </is>
-      </c>
-      <c r="BM7" t="inlineStr">
-        <is>
-          <t>144.98038497165638</t>
-        </is>
-      </c>
-      <c r="BN7" t="inlineStr">
-        <is>
-          <t>12.040780081525298</t>
-        </is>
-      </c>
-      <c r="BO7" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="BP7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ7" t="inlineStr">
-        <is>
-          <t>138.1891388170051</t>
-        </is>
-      </c>
-      <c r="BR7" t="inlineStr">
-        <is>
-          <t>141.0</t>
-        </is>
-      </c>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>111.7593856376652</t>
-        </is>
-      </c>
-      <c r="BT7" t="inlineStr">
-        <is>
-          <t>10.571631172040822</t>
-        </is>
-      </c>
-      <c r="BU7" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV7" t="inlineStr">
-        <is>
-          <t>146.0</t>
         </is>
       </c>
     </row>
@@ -3140,37 +2510,37 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>76.8094319087438</t>
+          <t>69.97129509581187</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1324.8633430192094</t>
+          <t>1205.8532785132802</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>36.3986722700047</t>
+          <t>34.72539817645408</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>135.55901087367457</t>
+          <t>119.18571914064259</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -3180,27 +2550,27 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>98.0019057610689</t>
+          <t>130.6443139480517</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>9.899591191613364</t>
+          <t>11.429974363403081</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>139.45174269503894</t>
+          <t>141.4154584426911</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -3210,12 +2580,12 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>214.52710023835544</t>
+          <t>275.55253339364066</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>14.646743673539024</t>
+          <t>16.599775100694607</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
@@ -3225,7 +2595,7 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -3316,96 +2686,6 @@
       <c r="BD8" t="inlineStr">
         <is>
           <t>50.0</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>69.97129509581187</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>1205.8532785132802</t>
-        </is>
-      </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>34.72539817645408</t>
-        </is>
-      </c>
-      <c r="BI8" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>85.0</t>
-        </is>
-      </c>
-      <c r="BK8" t="inlineStr">
-        <is>
-          <t>119.18571914064259</t>
-        </is>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM8" t="inlineStr">
-        <is>
-          <t>130.6443139480517</t>
-        </is>
-      </c>
-      <c r="BN8" t="inlineStr">
-        <is>
-          <t>11.429974363403081</t>
-        </is>
-      </c>
-      <c r="BO8" t="inlineStr">
-        <is>
-          <t>111.0</t>
-        </is>
-      </c>
-      <c r="BP8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ8" t="inlineStr">
-        <is>
-          <t>141.4154584426911</t>
-        </is>
-      </c>
-      <c r="BR8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t>275.55253339364066</t>
-        </is>
-      </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>16.599775100694607</t>
-        </is>
-      </c>
-      <c r="BU8" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV8" t="inlineStr">
-        <is>
-          <t>155.0</t>
         </is>
       </c>
     </row>
@@ -3512,37 +2792,37 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>158.89288141697793</t>
+          <t>149.80062564990328</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>158.0</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>647.1024699919737</t>
+          <t>681.7126418030423</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>25.438208859744307</t>
+          <t>26.109627377713423</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>168.0</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>128.65715630849203</t>
+          <t>125.31965573628743</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -3552,12 +2832,12 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>6.921253356493165</t>
+          <t>79.29437642872357</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2.6308275041311933</t>
+          <t>8.904738987119362</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -3572,7 +2852,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>131.06001885732016</t>
+          <t>130.57684739430746</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -3582,12 +2862,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>98.59790714889563</t>
+          <t>59.85146358300949</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>9.92964788645074</t>
+          <t>7.736372766549547</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -3688,96 +2968,6 @@
       <c r="BD9" t="inlineStr">
         <is>
           <t>138.0</t>
-        </is>
-      </c>
-      <c r="BE9" t="inlineStr">
-        <is>
-          <t>149.80062564990328</t>
-        </is>
-      </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>149.0</t>
-        </is>
-      </c>
-      <c r="BG9" t="inlineStr">
-        <is>
-          <t>681.7126418030423</t>
-        </is>
-      </c>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>26.109627377713423</t>
-        </is>
-      </c>
-      <c r="BI9" t="inlineStr">
-        <is>
-          <t>130.0</t>
-        </is>
-      </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>168.0</t>
-        </is>
-      </c>
-      <c r="BK9" t="inlineStr">
-        <is>
-          <t>125.31965573628743</t>
-        </is>
-      </c>
-      <c r="BL9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM9" t="inlineStr">
-        <is>
-          <t>79.29437642872357</t>
-        </is>
-      </c>
-      <c r="BN9" t="inlineStr">
-        <is>
-          <t>8.904738987119362</t>
-        </is>
-      </c>
-      <c r="BO9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ9" t="inlineStr">
-        <is>
-          <t>130.57684739430746</t>
-        </is>
-      </c>
-      <c r="BR9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>59.85146358300949</t>
-        </is>
-      </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>7.736372766549547</t>
-        </is>
-      </c>
-      <c r="BU9" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV9" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -3884,37 +3074,37 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>80.06948433754687</t>
+          <t>71.54639323103399</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1422.5787616914383</t>
+          <t>1272.6066192564858</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>37.717088457242276</t>
+          <t>35.67361236623628</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>135.9952400501239</t>
+          <t>118.00927904678507</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -3924,27 +3114,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>132.3262784868874</t>
+          <t>191.68644003804525</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>11.503315977877309</t>
+          <t>13.84508721670056</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>140.68644171606496</t>
+          <t>142.47142374727488</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -3954,12 +3144,12 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>298.99912898879774</t>
+          <t>382.76222173726865</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>17.291591279833032</t>
+          <t>19.564309896780635</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -3969,7 +3159,7 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>157.0</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -4060,96 +3250,6 @@
       <c r="BD10" t="inlineStr">
         <is>
           <t>34.0</t>
-        </is>
-      </c>
-      <c r="BE10" t="inlineStr">
-        <is>
-          <t>71.54639323103399</t>
-        </is>
-      </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="BG10" t="inlineStr">
-        <is>
-          <t>1272.6066192564858</t>
-        </is>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>35.67361236623628</t>
-        </is>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BK10" t="inlineStr">
-        <is>
-          <t>118.00927904678507</t>
-        </is>
-      </c>
-      <c r="BL10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM10" t="inlineStr">
-        <is>
-          <t>191.68644003804525</t>
-        </is>
-      </c>
-      <c r="BN10" t="inlineStr">
-        <is>
-          <t>13.84508721670056</t>
-        </is>
-      </c>
-      <c r="BO10" t="inlineStr">
-        <is>
-          <t>106.0</t>
-        </is>
-      </c>
-      <c r="BP10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ10" t="inlineStr">
-        <is>
-          <t>142.47142374727488</t>
-        </is>
-      </c>
-      <c r="BR10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>382.76222173726865</t>
-        </is>
-      </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>19.564309896780635</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>159.0</t>
         </is>
       </c>
     </row>
@@ -4256,272 +3356,182 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>146.5916285094976</t>
+          <t>137.06397578462682</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>137.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>873.4275803343485</t>
+          <t>888.5537392587412</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>29.553808220504315</t>
+          <t>29.808618539924677</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>116.28261351052049</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>219.78683318432832</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>14.825209380792176</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>139.24455944572225</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>185.15431595791244</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>13.60714209369155</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>130.9820148267857</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>731.7741740773771</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>27.051324811871545</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>136.2265349442713</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>944.0690116739203</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>30.7257060402836</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>98.1628413303064</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>1362.994546099761</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>36.918756020480444</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
           <t>124.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>170.0</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>131.07195814521396</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>33.02615206480694</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>5.746838440813082</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>141.75635772496238</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>293.7388253969781</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>17.13881050122727</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>156.0</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>130.9820148267857</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>731.7741740773771</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>27.051324811871545</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>136.2265349442713</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>944.0690116739203</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>30.7257060402836</t>
-        </is>
-      </c>
-      <c r="AW11" t="inlineStr">
-        <is>
-          <t>113.0</t>
-        </is>
-      </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>160.0</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>98.1628413303064</t>
-        </is>
-      </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>1362.994546099761</t>
-        </is>
-      </c>
-      <c r="BB11" t="inlineStr">
-        <is>
-          <t>36.918756020480444</t>
-        </is>
-      </c>
-      <c r="BC11" t="inlineStr">
-        <is>
-          <t>72.0</t>
-        </is>
-      </c>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>124.0</t>
-        </is>
-      </c>
-      <c r="BE11" t="inlineStr">
-        <is>
-          <t>137.06397578462682</t>
-        </is>
-      </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>137.0</t>
-        </is>
-      </c>
-      <c r="BG11" t="inlineStr">
-        <is>
-          <t>888.5537392587412</t>
-        </is>
-      </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>29.808618539924677</t>
-        </is>
-      </c>
-      <c r="BI11" t="inlineStr">
-        <is>
-          <t>114.0</t>
-        </is>
-      </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>160.0</t>
-        </is>
-      </c>
-      <c r="BK11" t="inlineStr">
-        <is>
-          <t>116.28261351052049</t>
-        </is>
-      </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM11" t="inlineStr">
-        <is>
-          <t>219.78683318432832</t>
-        </is>
-      </c>
-      <c r="BN11" t="inlineStr">
-        <is>
-          <t>14.825209380792176</t>
-        </is>
-      </c>
-      <c r="BO11" t="inlineStr">
-        <is>
-          <t>104.0</t>
-        </is>
-      </c>
-      <c r="BP11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ11" t="inlineStr">
-        <is>
-          <t>139.24455944572225</t>
-        </is>
-      </c>
-      <c r="BR11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>185.15431595791244</t>
-        </is>
-      </c>
-      <c r="BT11" t="inlineStr">
-        <is>
-          <t>13.60714209369155</t>
-        </is>
-      </c>
-      <c r="BU11" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV11" t="inlineStr">
-        <is>
-          <t>152.0</t>
         </is>
       </c>
     </row>
@@ -4628,37 +3638,37 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>162.50967081277201</t>
+          <t>154.17888870252503</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>641.6130835279084</t>
+          <t>669.1862034419659</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>25.33008258036101</t>
+          <t>25.868633582815423</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>128.5156453450521</t>
+          <t>125.8896697362264</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -4668,12 +3678,12 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>5.518984476311306</t>
+          <t>45.33790740511649</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2.349251897160308</t>
+          <t>6.733342959118931</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -4688,7 +3698,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>130.43011029561362</t>
+          <t>130.12718645731607</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -4698,12 +3708,12 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>59.87280097609599</t>
+          <t>41.322547741428004</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>7.7377516744914985</t>
+          <t>6.428261642265971</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -4804,96 +3814,6 @@
       <c r="BD12" t="inlineStr">
         <is>
           <t>150.0</t>
-        </is>
-      </c>
-      <c r="BE12" t="inlineStr">
-        <is>
-          <t>154.17888870252503</t>
-        </is>
-      </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>154.0</t>
-        </is>
-      </c>
-      <c r="BG12" t="inlineStr">
-        <is>
-          <t>669.1862034419659</t>
-        </is>
-      </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>25.868633582815423</t>
-        </is>
-      </c>
-      <c r="BI12" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>172.0</t>
-        </is>
-      </c>
-      <c r="BK12" t="inlineStr">
-        <is>
-          <t>125.8896697362264</t>
-        </is>
-      </c>
-      <c r="BL12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM12" t="inlineStr">
-        <is>
-          <t>45.33790740511649</t>
-        </is>
-      </c>
-      <c r="BN12" t="inlineStr">
-        <is>
-          <t>6.733342959118931</t>
-        </is>
-      </c>
-      <c r="BO12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ12" t="inlineStr">
-        <is>
-          <t>130.12718645731607</t>
-        </is>
-      </c>
-      <c r="BR12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS12" t="inlineStr">
-        <is>
-          <t>41.322547741428004</t>
-        </is>
-      </c>
-      <c r="BT12" t="inlineStr">
-        <is>
-          <t>6.428261642265971</t>
-        </is>
-      </c>
-      <c r="BU12" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV12" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -5000,37 +3920,37 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>166.2106671141542</t>
+          <t>157.72130242287182</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>595.8945119524445</t>
+          <t>627.2485987559955</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>24.410950656466547</t>
+          <t>25.044931598149667</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>185.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>128.71804650624594</t>
+          <t>124.4005651473999</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -5040,12 +3960,12 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>7.715693356408589</t>
+          <t>77.60302075553871</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2.7777136923031844</t>
+          <t>8.809257673353567</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -5060,7 +3980,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>132.13832569122314</t>
+          <t>131.3976256052653</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -5070,12 +3990,12 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>102.08299466779958</t>
+          <t>64.62705076382015</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>10.103612951207086</t>
+          <t>8.039095145837008</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
@@ -5176,96 +4096,6 @@
       <c r="BD13" t="inlineStr">
         <is>
           <t>144.0</t>
-        </is>
-      </c>
-      <c r="BE13" t="inlineStr">
-        <is>
-          <t>157.72130242287182</t>
-        </is>
-      </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>153.0</t>
-        </is>
-      </c>
-      <c r="BG13" t="inlineStr">
-        <is>
-          <t>627.2485987559955</t>
-        </is>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>25.044931598149667</t>
-        </is>
-      </c>
-      <c r="BI13" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>177.0</t>
-        </is>
-      </c>
-      <c r="BK13" t="inlineStr">
-        <is>
-          <t>124.4005651473999</t>
-        </is>
-      </c>
-      <c r="BL13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM13" t="inlineStr">
-        <is>
-          <t>77.60302075553871</t>
-        </is>
-      </c>
-      <c r="BN13" t="inlineStr">
-        <is>
-          <t>8.809257673353567</t>
-        </is>
-      </c>
-      <c r="BO13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ13" t="inlineStr">
-        <is>
-          <t>131.3976256052653</t>
-        </is>
-      </c>
-      <c r="BR13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS13" t="inlineStr">
-        <is>
-          <t>64.62705076382015</t>
-        </is>
-      </c>
-      <c r="BT13" t="inlineStr">
-        <is>
-          <t>8.039095145837008</t>
-        </is>
-      </c>
-      <c r="BU13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV13" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -5372,37 +4202,37 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>80.51674696697046</t>
+          <t>72.8213667040417</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1209.8200574114092</t>
+          <t>1086.0849232686103</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>34.78246767282921</t>
+          <t>32.955802573577394</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>129.63291104634604</t>
+          <t>125.63858032226562</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -5412,12 +4242,12 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>29.99315694990172</t>
+          <t>56.476498873593904</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>5.4766008572746765</t>
+          <t>7.515084754917532</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -5432,7 +4262,7 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>131.03254159291586</t>
+          <t>131.14692974090576</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -5442,12 +4272,12 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>89.22363466096171</t>
+          <t>93.63746895053286</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>9.445826309061674</t>
+          <t>9.676645542259614</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -5548,96 +4378,6 @@
       <c r="BD14" t="inlineStr">
         <is>
           <t>44.0</t>
-        </is>
-      </c>
-      <c r="BE14" t="inlineStr">
-        <is>
-          <t>72.8213667040417</t>
-        </is>
-      </c>
-      <c r="BF14" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="BG14" t="inlineStr">
-        <is>
-          <t>1086.0849232686103</t>
-        </is>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>32.955802573577394</t>
-        </is>
-      </c>
-      <c r="BI14" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BK14" t="inlineStr">
-        <is>
-          <t>125.63858032226562</t>
-        </is>
-      </c>
-      <c r="BL14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM14" t="inlineStr">
-        <is>
-          <t>56.476498873593904</t>
-        </is>
-      </c>
-      <c r="BN14" t="inlineStr">
-        <is>
-          <t>7.515084754917532</t>
-        </is>
-      </c>
-      <c r="BO14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ14" t="inlineStr">
-        <is>
-          <t>131.14692974090576</t>
-        </is>
-      </c>
-      <c r="BR14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS14" t="inlineStr">
-        <is>
-          <t>93.63746895053286</t>
-        </is>
-      </c>
-      <c r="BT14" t="inlineStr">
-        <is>
-          <t>9.676645542259614</t>
-        </is>
-      </c>
-      <c r="BU14" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV14" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -5744,37 +4484,37 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>165.08580294502056</t>
+          <t>156.58526826545528</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>167.0</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>764.7867544451664</t>
+          <t>807.3982340355473</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>27.65477814854363</t>
+          <t>28.41475380916659</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>142.0</t>
+          <t>133.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>186.0</t>
+          <t>178.0</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>130.86502991434364</t>
+          <t>116.57392084958916</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -5784,27 +4524,27 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>23.288921379415058</t>
+          <t>201.11730439220088</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>4.825859651856346</t>
+          <t>14.181583282278494</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>134.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>141.07645321592815</t>
+          <t>139.28720358100304</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -5814,12 +4554,12 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>254.32232451846806</t>
+          <t>151.6190122722358</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>15.947486463968799</t>
+          <t>12.31336721909307</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
@@ -5829,7 +4569,7 @@
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>153.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
@@ -5920,96 +4660,6 @@
       <c r="BD15" t="inlineStr">
         <is>
           <t>152.0</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>156.58526826545528</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>159.0</t>
-        </is>
-      </c>
-      <c r="BG15" t="inlineStr">
-        <is>
-          <t>807.3982340355473</t>
-        </is>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>28.41475380916659</t>
-        </is>
-      </c>
-      <c r="BI15" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>178.0</t>
-        </is>
-      </c>
-      <c r="BK15" t="inlineStr">
-        <is>
-          <t>116.57392084958916</t>
-        </is>
-      </c>
-      <c r="BL15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM15" t="inlineStr">
-        <is>
-          <t>201.11730439220088</t>
-        </is>
-      </c>
-      <c r="BN15" t="inlineStr">
-        <is>
-          <t>14.181583282278494</t>
-        </is>
-      </c>
-      <c r="BO15" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="BP15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ15" t="inlineStr">
-        <is>
-          <t>139.28720358100304</t>
-        </is>
-      </c>
-      <c r="BR15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS15" t="inlineStr">
-        <is>
-          <t>151.6190122722358</t>
-        </is>
-      </c>
-      <c r="BT15" t="inlineStr">
-        <is>
-          <t>12.31336721909307</t>
-        </is>
-      </c>
-      <c r="BU15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV15" t="inlineStr">
-        <is>
-          <t>151.0</t>
         </is>
       </c>
     </row>
@@ -6116,37 +4766,37 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>144.8051322868754</t>
+          <t>135.03407748686826</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>142.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>1100.163496513589</t>
+          <t>1133.3738415948674</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>33.168712614655234</t>
+          <t>33.66561809316543</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>129.05416425069174</t>
+          <t>124.39188925425212</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -6156,12 +4806,12 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>14.682481501891326</t>
+          <t>105.67321235046732</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>3.8317726318104164</t>
+          <t>10.279747679319144</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -6176,7 +4826,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>132.2380870183309</t>
+          <t>131.52151997884116</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -6186,12 +4836,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>142.87704851182707</t>
+          <t>97.3456570890782</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>11.953118777617291</t>
+          <t>9.866390276543807</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -6292,96 +4942,6 @@
       <c r="BD16" t="inlineStr">
         <is>
           <t>119.0</t>
-        </is>
-      </c>
-      <c r="BE16" t="inlineStr">
-        <is>
-          <t>135.03407748686826</t>
-        </is>
-      </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
-      <c r="BG16" t="inlineStr">
-        <is>
-          <t>1133.3738415948674</t>
-        </is>
-      </c>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>33.66561809316543</t>
-        </is>
-      </c>
-      <c r="BI16" t="inlineStr">
-        <is>
-          <t>106.0</t>
-        </is>
-      </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>162.0</t>
-        </is>
-      </c>
-      <c r="BK16" t="inlineStr">
-        <is>
-          <t>124.39188925425212</t>
-        </is>
-      </c>
-      <c r="BL16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM16" t="inlineStr">
-        <is>
-          <t>105.67321235046732</t>
-        </is>
-      </c>
-      <c r="BN16" t="inlineStr">
-        <is>
-          <t>10.279747679319144</t>
-        </is>
-      </c>
-      <c r="BO16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ16" t="inlineStr">
-        <is>
-          <t>131.52151997884116</t>
-        </is>
-      </c>
-      <c r="BR16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS16" t="inlineStr">
-        <is>
-          <t>97.3456570890782</t>
-        </is>
-      </c>
-      <c r="BT16" t="inlineStr">
-        <is>
-          <t>9.866390276543807</t>
-        </is>
-      </c>
-      <c r="BU16" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV16" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -6488,37 +5048,37 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>160.4049934074612</t>
+          <t>151.3998498170306</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>651.2856690451664</t>
+          <t>670.68821322316</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>25.52029915665501</t>
+          <t>25.897648797200876</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>128.23437372843424</t>
+          <t>126.04481919606526</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -6528,12 +5088,12 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>3.7155150969806976</t>
+          <t>46.60446166558746</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1.9275671446101943</t>
+          <t>6.826746052519272</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -6548,7 +5108,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>130.2628606160482</t>
+          <t>129.63724835713705</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -6558,12 +5118,12 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>61.636136280987245</t>
+          <t>30.79283573493937</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>7.850868504884491</t>
+          <t>5.549129277187491</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
@@ -6664,96 +5224,6 @@
       <c r="BD17" t="inlineStr">
         <is>
           <t>143.0</t>
-        </is>
-      </c>
-      <c r="BE17" t="inlineStr">
-        <is>
-          <t>151.3998498170306</t>
-        </is>
-      </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>152.0</t>
-        </is>
-      </c>
-      <c r="BG17" t="inlineStr">
-        <is>
-          <t>670.68821322316</t>
-        </is>
-      </c>
-      <c r="BH17" t="inlineStr">
-        <is>
-          <t>25.897648797200876</t>
-        </is>
-      </c>
-      <c r="BI17" t="inlineStr">
-        <is>
-          <t>132.0</t>
-        </is>
-      </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>172.0</t>
-        </is>
-      </c>
-      <c r="BK17" t="inlineStr">
-        <is>
-          <t>126.04481919606526</t>
-        </is>
-      </c>
-      <c r="BL17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM17" t="inlineStr">
-        <is>
-          <t>46.60446166558746</t>
-        </is>
-      </c>
-      <c r="BN17" t="inlineStr">
-        <is>
-          <t>6.826746052519272</t>
-        </is>
-      </c>
-      <c r="BO17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ17" t="inlineStr">
-        <is>
-          <t>129.63724835713705</t>
-        </is>
-      </c>
-      <c r="BR17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS17" t="inlineStr">
-        <is>
-          <t>30.79283573493937</t>
-        </is>
-      </c>
-      <c r="BT17" t="inlineStr">
-        <is>
-          <t>5.549129277187491</t>
-        </is>
-      </c>
-      <c r="BU17" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV17" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -6860,37 +5330,37 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>126.75362926611643</t>
+          <t>117.45208119562793</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>809.870508242659</t>
+          <t>780.2514096399237</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>28.458223912300973</t>
+          <t>27.932980679475</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>128.78802680969238</t>
+          <t>125.48865667978923</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -6900,12 +5370,12 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>9.35951047165266</t>
+          <t>64.01310769281541</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>3.0593317034366607</t>
+          <t>8.000819188859063</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -6920,7 +5390,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>131.0214172999064</t>
+          <t>130.53190898895264</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -6930,12 +5400,12 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>89.84792647433382</t>
+          <t>58.84541545595001</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>9.478814613354025</t>
+          <t>7.671076551302953</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -7036,96 +5506,6 @@
       <c r="BD18" t="inlineStr">
         <is>
           <t>103.0</t>
-        </is>
-      </c>
-      <c r="BE18" t="inlineStr">
-        <is>
-          <t>117.45208119562793</t>
-        </is>
-      </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>117.0</t>
-        </is>
-      </c>
-      <c r="BG18" t="inlineStr">
-        <is>
-          <t>780.2514096399237</t>
-        </is>
-      </c>
-      <c r="BH18" t="inlineStr">
-        <is>
-          <t>27.932980679475</t>
-        </is>
-      </c>
-      <c r="BI18" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>136.0</t>
-        </is>
-      </c>
-      <c r="BK18" t="inlineStr">
-        <is>
-          <t>125.48865667978923</t>
-        </is>
-      </c>
-      <c r="BL18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BM18" t="inlineStr">
-        <is>
-          <t>64.01310769281541</t>
-        </is>
-      </c>
-      <c r="BN18" t="inlineStr">
-        <is>
-          <t>8.000819188859063</t>
-        </is>
-      </c>
-      <c r="BO18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BP18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ18" t="inlineStr">
-        <is>
-          <t>130.53190898895264</t>
-        </is>
-      </c>
-      <c r="BR18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BS18" t="inlineStr">
-        <is>
-          <t>58.84541545595001</t>
-        </is>
-      </c>
-      <c r="BT18" t="inlineStr">
-        <is>
-          <t>7.671076551302953</t>
-        </is>
-      </c>
-      <c r="BU18" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV18" t="inlineStr">
-        <is>
-          <t>128.0</t>
         </is>
       </c>
     </row>
@@ -7232,82 +5612,82 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>96.95614446287463</t>
+          <t>88.8200859235754</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>889.2350799783887</t>
+          <t>826.5811705849128</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>29.820044935888156</t>
+          <t>28.75032470399096</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>134.1355091151623</t>
+          <t>116.8296035844991</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>55.36648661445502</t>
+          <t>141.7173508056759</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>7.440865985519093</t>
+          <t>11.904509683547488</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>142.0850141943428</t>
+          <t>141.70834627355748</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>221.2286353633788</t>
+          <t>200.00484472901897</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>14.873756598901933</t>
+          <t>14.142306909730781</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
@@ -7317,7 +5697,7 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>155.0</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
@@ -7408,96 +5788,6 @@
       <c r="BD19" t="inlineStr">
         <is>
           <t>86.0</t>
-        </is>
-      </c>
-      <c r="BE19" t="inlineStr">
-        <is>
-          <t>88.8200859235754</t>
-        </is>
-      </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BG19" t="inlineStr">
-        <is>
-          <t>826.5811705849128</t>
-        </is>
-      </c>
-      <c r="BH19" t="inlineStr">
-        <is>
-          <t>28.75032470399096</t>
-        </is>
-      </c>
-      <c r="BI19" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="BJ19" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="BK19" t="inlineStr">
-        <is>
-          <t>116.8296035844991</t>
-        </is>
-      </c>
-      <c r="BL19" t="inlineStr">
-        <is>
-          <t>118.0</t>
-        </is>
-      </c>
-      <c r="BM19" t="inlineStr">
-        <is>
-          <t>141.7173508056759</t>
-        </is>
-      </c>
-      <c r="BN19" t="inlineStr">
-        <is>
-          <t>11.904509683547488</t>
-        </is>
-      </c>
-      <c r="BO19" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="BP19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BQ19" t="inlineStr">
-        <is>
-          <t>141.70834627355748</t>
-        </is>
-      </c>
-      <c r="BR19" t="inlineStr">
-        <is>
-          <t>143.0</t>
-        </is>
-      </c>
-      <c r="BS19" t="inlineStr">
-        <is>
-          <t>200.00484472901897</t>
-        </is>
-      </c>
-      <c r="BT19" t="inlineStr">
-        <is>
-          <t>14.142306909730781</t>
-        </is>
-      </c>
-      <c r="BU19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="BV19" t="inlineStr">
-        <is>
-          <t>154.0</t>
         </is>
       </c>
     </row>

--- a/stage2_excels/GA/GA_color_space.xlsx
+++ b/stage2_excels/GA/GA_color_space.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="GA" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,17 +718,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D1-ga22</t>
+          <t>D1-ga14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46.01240606435412</t>
+          <t>28.77824628473979</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19.064507744587452</t>
+          <t>18.91200681842395</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,42 +738,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13.287223920171728</t>
+          <t>18.615574789399158</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.6451644572188684</t>
+          <t>4.314577011643107</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>90.37717364073947</t>
+          <t>96.55438751680703</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>453.52357547050946</t>
+          <t>1097.5702604538928</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21.29609296257202</t>
+          <t>33.12959795189028</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -783,72 +783,72 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>185.70436702835036</t>
+          <t>172.1171286144387</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>189.0</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>531.3698999280359</t>
+          <t>602.6240719993863</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>23.051461991119695</t>
+          <t>24.548402636411726</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>176.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>202.0</t>
+          <t>190.0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>164.8959850843257</t>
+          <t>151.39966649509614</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>170.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>613.2283322755437</t>
+          <t>670.6737645457156</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>24.763447503842105</t>
+          <t>25.89736983837771</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>182.0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>124.37258847554524</t>
+          <t>126.04481728871663</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>73.07829577324392</t>
+          <t>46.60459407939421</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>8.548584430959545</t>
+          <t>6.826755750676467</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>131.0718037287394</t>
+          <t>129.63726043701172</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>50.01187780150411</t>
+          <t>30.793165569135454</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>7.071907649390234</t>
+          <t>5.5491589965629435</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -908,249 +908,249 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>156.64734517620747</t>
+          <t>143.779795102484</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>531.1120771038178</t>
+          <t>555.9494650584563</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>23.045868981312417</t>
+          <t>23.57858064130359</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>164.60873178988092</t>
+          <t>151.187446677995</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>170.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>631.242624142716</t>
+          <t>709.742226304339</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>25.1245422673273</t>
+          <t>26.64098771262693</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>182.0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>137.98277783654717</t>
+          <t>123.10769458565717</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>127.0</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>845.5971709815626</t>
+          <t>858.3983097216939</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>29.079153546510987</t>
+          <t>29.298435277702012</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>157.0</t>
+          <t>143.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D6-ga6</t>
+          <t>D1-ga18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>32.67180150297033</t>
+          <t>36.531474297708066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13.574227036101567</t>
+          <t>16.238309204842675</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.47251395087234</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.844844058467965</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>13.0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>18.96142463411891</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.354471797373237</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>198.455236982158</t>
+          <t>92.26242505643715</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>216.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3065.3559210920334</t>
+          <t>1987.794615587723</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>55.365656512788085</t>
+          <t>44.58469037223117</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>169.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>244.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>101.87692826351551</t>
+          <t>177.01780683844623</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>180.0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1113.228351849192</t>
+          <t>582.833672151109</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>33.36507682966116</t>
+          <t>24.141948391774616</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>163.0</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>122.0</t>
+          <t>195.0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>69.82749431715365</t>
+          <t>154.90628560956526</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1131.7800864375947</t>
+          <t>783.7162207261089</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>33.64193939768626</t>
+          <t>27.994932054322064</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>176.0</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>119.17062670095316</t>
+          <t>117.89863479713145</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>140.86831254136672</t>
+          <t>144.97881506730232</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>11.868795749416481</t>
+          <t>12.040714890209067</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1160,22 +1160,22 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>139.8080439194962</t>
+          <t>138.1885701880546</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>235.62295702171465</t>
+          <t>111.73900025753649</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>15.350014886693584</t>
+          <t>10.570666973163826</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1185,97 +1185,97 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>153.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>69.0103790960494</t>
+          <t>147.97335200400354</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>982.8686897915128</t>
+          <t>700.0680784601147</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>31.350736670635232</t>
+          <t>26.45879964133133</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>168.0</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>67.8041332946627</t>
+          <t>154.14715135225305</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>158.0</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1163.205789161181</t>
+          <t>796.1607919770712</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>34.10580286639183</t>
+          <t>28.216321375705075</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>175.0</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>35.05649613863718</t>
+          <t>131.36314531874453</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>133.0</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1497.0408512749134</t>
+          <t>1672.5415171879786</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>38.69161215657618</t>
+          <t>40.89671768232725</t>
         </is>
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>161.0</t>
         </is>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>83.68399573756322</t>
+          <t>83.68418378624473</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1183.2862679321656</t>
+          <t>1183.2983723742946</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>34.398928296273496</t>
+          <t>34.39910423796373</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>157.3742395636669</t>
+          <t>157.37413467589678</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>603.0285125064859</t>
+          <t>603.0223698459278</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>24.556638868267086</t>
+          <t>24.55651379666763</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>126.23806349436443</t>
+          <t>126.23806222279866</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>39.12484782414402</t>
+          <t>39.1249164583373</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>6.254985837245679</t>
+          <t>6.25499132360208</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>129.79143555959067</t>
+          <t>129.79144414265951</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1452,12 +1452,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>33.31207421048003</t>
+          <t>33.31233305747803</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>5.7716613042069635</t>
+          <t>5.771683728122845</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>150.3260534665408</t>
+          <t>150.32597480071323</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
@@ -1482,12 +1482,12 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>488.38265297689793</t>
+          <t>488.37866609009296</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>22.09938128040914</t>
+          <t>22.09929107664074</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>156.6562106670862</t>
+          <t>156.65615494545835</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1512,12 +1512,12 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>646.9986079820511</t>
+          <t>646.9956426416096</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>25.436167321002806</t>
+          <t>25.43610903109219</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>136.08774517516258</t>
+          <t>136.0875583438221</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
@@ -1542,12 +1542,12 @@
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>847.1593870019826</t>
+          <t>847.1600326920807</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>29.106002594000824</t>
+          <t>29.10601368604228</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
@@ -1564,137 +1564,137 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D6-ga3</t>
+          <t>D1-ga22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>28.674200258615844</t>
+          <t>46.01240606435412</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11.706119169749353</t>
+          <t>19.064507744587452</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21.947556853600602</t>
+          <t>13.287223920171728</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.684821966051709</t>
+          <t>3.6451644572188684</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>192.64550832533052</t>
+          <t>90.37759818554903</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>216.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3790.115078273813</t>
+          <t>453.5234462724491</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>61.563910518044686</t>
+          <t>21.296089929197077</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>247.0</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>95.92979220212962</t>
+          <t>185.70436702835036</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>189.0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1488.8012629203781</t>
+          <t>531.3698999280359</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>38.58498753298202</t>
+          <t>23.051461991119695</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>176.0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>202.0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>65.32000986781715</t>
+          <t>164.89570173185032</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>170.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1554.6748563979202</t>
+          <t>613.2144796509864</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>39.42936540698975</t>
+          <t>24.7631678032312</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>182.0</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>126.088028271993</t>
+          <t>124.37257448832194</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>36.091717665073695</t>
+          <t>73.07891464021883</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>6.007638276816747</t>
+          <t>8.548620627926988</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>130.97281392415366</t>
+          <t>131.07183933258057</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>82.59342989819632</t>
+          <t>50.01286260119968</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>9.088092753608775</t>
+          <t>7.071977276632023</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
@@ -1754,109 +1754,109 @@
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>65.24523246741326</t>
+          <t>156.64714116242519</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>161.0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1351.454530809278</t>
+          <t>531.1027072127091</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>36.76213447025727</t>
+          <t>23.045665692548546</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>63.01972129153663</t>
+          <t>164.60851077495013</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>170.0</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>1595.5575758907444</t>
+          <t>631.2325168038491</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>39.94443109985101</t>
+          <t>25.124341121785644</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>182.0</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>37.297719201461916</t>
+          <t>137.98235847488363</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1903.157076364233</t>
+          <t>845.5833325383036</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>43.62518855391038</t>
+          <t>29.078915601141382</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>157.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D4-ga12</t>
+          <t>D1-ga4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30.1372163190345</t>
+          <t>44.23702704222185</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17.182990352737374</t>
+          <t>17.682484866606337</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1866,12 +1866,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16.800608494545674</t>
+          <t>17.515682063865384</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.098854534445651</t>
+          <t>4.185174078083896</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1881,102 +1881,102 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>143.5436247590592</t>
+          <t>97.6605832660536</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2623.4445293234253</t>
+          <t>628.3024793636386</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>51.21957174092171</t>
+          <t>25.06596256607032</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>105.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>181.0</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>158.48108263630573</t>
+          <t>181.514844163117</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>154.0</t>
+          <t>179.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1052.2466181736077</t>
+          <t>497.666292331044</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>32.43835103968153</t>
+          <t>22.308435452336052</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>134.0</t>
+          <t>167.0</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>186.0</t>
+          <t>197.0</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>127.9930184696415</t>
+          <t>157.72117754263002</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1474.2380220306354</t>
+          <t>627.2412041260753</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>38.39580734963956</t>
+          <t>25.044783970441337</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>164.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>116.37011528384502</t>
+          <t>124.40055847167969</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1986,17 +1986,17 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>224.3214711505171</t>
+          <t>77.60342950785223</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>14.977365294020077</t>
+          <t>8.809280873479528</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>104.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>139.64912215582197</t>
+          <t>131.39763959248862</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>214.48752305540023</t>
+          <t>64.62745035600746</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>14.64539255381706</t>
+          <t>8.03911999885606</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
@@ -2031,114 +2031,114 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>153.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>122.65477536089345</t>
+          <t>150.4056071228568</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>146.0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1229.09179545448</t>
+          <t>515.6015587539523</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>35.0584054893328</t>
+          <t>22.70686149061451</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>154.0</t>
+          <t>167.0</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>126.96252051448418</t>
+          <t>157.08277218526766</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>120.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>1552.1457300129123</t>
+          <t>666.30888504169</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>39.397280743890335</t>
+          <t>25.812959633519167</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>92.0</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>164.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>87.7471088889737</t>
+          <t>129.0579366271798</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2224.2734025579716</t>
+          <t>801.0380430986411</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>47.16220311391286</t>
+          <t>28.30261548158829</t>
         </is>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>144.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D1-ga18</t>
+          <t>D1-ga7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>36.531474297708066</t>
+          <t>30.218399205412194</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16.238309204842675</t>
+          <t>16.49636037776923</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>23.47251395087234</t>
+          <t>25.803725231158705</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.844844058467965</t>
+          <t>5.079736728528232</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2163,122 +2163,122 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>92.2623137218673</t>
+          <t>90.59212609162215</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1987.784807871343</t>
+          <t>878.8584890269354</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>44.584580382362496</t>
+          <t>29.645547541358304</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>177.01780683844623</t>
+          <t>176.6377881160674</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>177.0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>582.833672151109</t>
+          <t>555.7774970134833</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>24.141948391774616</t>
+          <t>23.574933658729208</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>163.0</t>
+          <t>158.0</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>195.0</t>
+          <t>192.0</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>154.90508266705513</t>
+          <t>154.17872097505568</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>159.0</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>783.8468467039286</t>
+          <t>669.1755141519583</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>27.99726498613621</t>
+          <t>25.86842697482702</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>176.0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>117.89861506163642</t>
+          <t>125.88966592152913</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>144.98038497165638</t>
+          <t>45.33811700748089</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>12.040780081525298</t>
+          <t>6.733358523610701</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -2288,22 +2288,22 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>138.1891388170051</t>
+          <t>130.12719599405924</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>111.7593856376652</t>
+          <t>41.32282696726286</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>10.571631172040822</t>
+          <t>6.428283360840814</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
@@ -2313,234 +2313,234 @@
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>146.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>147.97254377700455</t>
+          <t>147.30394571515168</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>148.0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>700.1566906548238</t>
+          <t>553.2256429970563</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>26.460474119993084</t>
+          <t>23.52074920144034</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>134.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>168.0</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>154.14588967231563</t>
+          <t>153.41425153823744</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>158.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>796.2895969594857</t>
+          <t>707.8759007905261</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>28.21860373865946</t>
+          <t>26.60593732215661</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>133.0</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>175.0</t>
+          <t>172.0</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>131.36182725087696</t>
+          <t>130.03659989936352</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>133.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1672.8498363098577</t>
+          <t>871.5565720343919</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>40.90048699355373</t>
+          <t>29.522136982853933</t>
         </is>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>161.0</t>
+          <t>150.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D6-ga1</t>
+          <t>D3-ga10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27.71934558947546</t>
+          <t>29.564963175352787</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11.906167774704981</t>
+          <t>16.864306749631883</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17.7859794918116</t>
+          <t>17.479622063696905</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.217342705046817</t>
+          <t>4.180863793966135</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>190.25364612928539</t>
+          <t>112.6060183551006</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>210.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3941.780384081972</t>
+          <t>1899.9285353760597</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>62.78359964259752</t>
+          <t>43.58816967224088</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>176.68322189368018</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>543.6093402006109</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>23.31543137496304</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>149.80056755799026</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
           <t>149.0</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>246.0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>103.3220521939789</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>102.0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>1142.9514768033564</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>33.8075653782309</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>80.0</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>126.0</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>69.97129509581187</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1205.8532785132802</t>
+          <t>681.7102252487762</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>34.72539817645408</t>
+          <t>26.109581100599378</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>130.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>168.0</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>119.18571914064259</t>
+          <t>125.31965096791585</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2550,17 +2550,17 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>130.6443139480517</t>
+          <t>79.29475045648465</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>11.429974363403081</t>
+          <t>8.904759988707424</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>111.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>141.4154584426911</t>
+          <t>130.5768527984619</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -2580,12 +2580,12 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>275.55253339364066</t>
+          <t>59.8516681102592</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>16.599775100694607</t>
+          <t>7.7363859850875585</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
@@ -2595,234 +2595,234 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>155.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>69.84467592867934</t>
+          <t>143.04865778634957</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1051.099273107798</t>
+          <t>580.8302986643596</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>32.42066120713453</t>
+          <t>24.100421130435866</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>67.50786240201734</t>
+          <t>149.03106465049</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>148.0</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>1237.586356210254</t>
+          <t>714.0876745329787</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>35.17934559098924</t>
+          <t>26.722418949881366</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>129.0</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>168.0</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>38.50034797194811</t>
+          <t>115.7235551088933</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1820.4353886260378</t>
+          <t>1499.044133464686</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>42.66656054366273</t>
+          <t>38.71749131161116</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>138.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D3-ga10</t>
+          <t>D3-ga11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29.564963175352787</t>
+          <t>28.49511815745582</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16.864306749631883</t>
+          <t>17.53638978132449</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17.479622063696905</t>
+          <t>16.244031520160892</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.180863793966135</t>
+          <t>4.030388507347759</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>112.60586539592893</t>
+          <t>130.2792326018323</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1899.921478716321</t>
+          <t>1708.2431761838443</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>43.58808872520474</t>
+          <t>41.330898564921675</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>158.0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>176.68322189368018</t>
+          <t>166.05239075506304</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>178.0</t>
+          <t>167.0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>543.6093402006109</t>
+          <t>645.2060903569878</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>23.31543137496304</t>
+          <t>25.400907274288212</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>157.0</t>
+          <t>147.0</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>194.0</t>
+          <t>184.0</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>149.80062564990328</t>
+          <t>137.06383790578064</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>149.0</t>
+          <t>137.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>681.7126418030423</t>
+          <t>888.5615646720208</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>26.109627377713423</t>
+          <t>29.808749800553876</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>168.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>125.31965573628743</t>
+          <t>116.28260499190732</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -2832,17 +2832,17 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>79.29437642872357</t>
+          <t>219.78705096453538</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>8.904738987119362</t>
+          <t>14.8252167257189</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>104.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>130.57684739430746</t>
+          <t>139.2446162364767</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>59.85146358300949</t>
+          <t>185.1561168395501</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>7.736372766549547</t>
+          <t>13.607208267662772</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
@@ -2877,234 +2877,234 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>143.04869845068868</t>
+          <t>130.98191542575705</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>580.8323976326841</t>
+          <t>731.7776367020705</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>24.10046467669626</t>
+          <t>27.051388812814594</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>159.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>149.0311111240204</t>
+          <t>136.22644195621226</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>714.0908841262413</t>
+          <t>944.0740847700063</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>26.72247900413136</t>
+          <t>30.725788594761994</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>168.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>115.7237032432715</t>
+          <t>98.16263611527954</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1499.0442008217474</t>
+          <t>1363.0051686405686</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>38.71749218146428</t>
+          <t>36.91889988394249</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>124.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D5-ga5</t>
+          <t>D3-ga23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38.62573789846517</t>
+          <t>31.541537827252114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12.603765514017912</t>
+          <t>16.738768943822883</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20.309685347658828</t>
+          <t>18.908700332465504</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.506626825870856</t>
+          <t>4.348413542024896</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>215.94871598567318</t>
+          <t>104.64907896136171</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>240.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2602.925636473632</t>
+          <t>1387.4796099841772</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>51.01887529604736</t>
+          <t>37.2488873657211</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>198.0</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>252.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>112.42243961402143</t>
+          <t>182.69561120644158</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>184.0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1419.7863990061824</t>
+          <t>605.0916115802452</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>37.68005306533129</t>
+          <t>24.59860995219537</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>139.0</t>
+          <t>201.0</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>71.54639323103399</t>
+          <t>156.5851908958024</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1272.6066192564858</t>
+          <t>807.3940471570439</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>35.67361236623628</t>
+          <t>28.414680134695235</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>133.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>178.0</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>118.00927904678507</t>
+          <t>116.57389769185501</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -3114,17 +3114,17 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>191.68644003804525</t>
+          <t>201.11853653747212</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>13.84508721670056</t>
+          <t>14.18162672395068</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>106.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>142.47142374727488</t>
+          <t>139.28723899871406</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -3144,12 +3144,12 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>382.76222173726865</t>
+          <t>151.61980653414835</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>19.564309896780635</t>
+          <t>12.313399471070056</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -3159,114 +3159,114 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>159.0</t>
+          <t>151.0</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>71.83136792936018</t>
+          <t>149.61286988911272</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1097.46186049381</t>
+          <t>678.8740457895835</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>33.12796191276804</t>
+          <t>26.055211490018337</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>169.0</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>68.69070906148204</t>
+          <t>155.74583792715646</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>158.0</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>1313.5937656790347</t>
+          <t>848.2281766967517</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>36.243534122364984</t>
+          <t>29.124357103578298</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>132.0</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>178.0</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>29.50337862756829</t>
+          <t>125.60026692530236</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1506.2313969132242</t>
+          <t>1407.493771505904</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>38.81019707387769</t>
+          <t>37.516579954813366</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>98.0</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>152.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D3-ga11</t>
+          <t>D4-ga12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>28.49511815745582</t>
+          <t>30.1372163190345</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17.53638978132449</t>
+          <t>17.182990352737374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16.244031520160892</t>
+          <t>16.800608494545674</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.030388507347759</t>
+          <t>4.098854534445651</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3291,102 +3291,102 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>130.27902277143983</t>
+          <t>143.5440405582401</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1708.228033811015</t>
+          <t>2623.456836167942</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>41.33071537986023</t>
+          <t>51.219691878885236</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>105.0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>158.0</t>
+          <t>181.0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>166.05239075506304</t>
+          <t>158.48108263630573</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>167.0</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>645.2060903569878</t>
+          <t>1052.2466181736077</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>25.400907274288212</t>
+          <t>32.43835103968153</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>147.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>184.0</t>
+          <t>186.0</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>137.06397578462682</t>
+          <t>127.99278653486508</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>137.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>888.5537392587412</t>
+          <t>1474.2439169277632</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>29.808618539924677</t>
+          <t>38.395884114417306</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>116.28261351052049</t>
+          <t>116.37008072557018</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>219.78683318432832</t>
+          <t>224.32250148025716</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>14.825209380792176</t>
+          <t>14.977399690208482</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>139.24455944572225</t>
+          <t>139.649219430966</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>185.15431595791244</t>
+          <t>214.49049676428317</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>13.60714209369155</t>
+          <t>14.645494077165276</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -3441,114 +3441,114 @@
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>130.9820148267857</t>
+          <t>122.65453755435054</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>731.7741740773771</t>
+          <t>1229.0988857720724</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>27.051324811871545</t>
+          <t>35.05850661069397</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>136.2265349442713</t>
+          <t>126.962291515591</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>944.0690116739203</t>
+          <t>1552.1493239313418</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>30.7257060402836</t>
+          <t>39.39732635511377</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>113.0</t>
+          <t>92.0</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>98.1628413303064</t>
+          <t>87.74669492943605</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1362.994546099761</t>
+          <t>2224.2836653087725</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>36.918756020480444</t>
+          <t>47.162311916495064</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>124.0</t>
+          <t>121.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D1-ga7</t>
+          <t>D4-ga19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30.218399205412194</t>
+          <t>29.915331421824927</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16.49636037776923</t>
+          <t>16.76663914722094</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3558,117 +3558,117 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25.803725231158705</t>
+          <t>18.46330489581544</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.079736728528232</t>
+          <t>4.29689479692201</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>90.59187115746037</t>
+          <t>135.38065638611374</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>134.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>878.8542435542801</t>
+          <t>1622.1242683882583</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>29.645475937388493</t>
+          <t>40.27560388607796</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>176.6377881160674</t>
+          <t>144.48177857089746</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>145.0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>555.7774970134833</t>
+          <t>626.2606784635723</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>23.574933658729208</t>
+          <t>25.025200867596894</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>158.0</t>
+          <t>128.0</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>192.0</t>
+          <t>160.0</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>154.17888870252503</t>
+          <t>117.45195033087963</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>154.0</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>669.1862034419659</t>
+          <t>780.2602839871233</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>25.868633582815423</t>
+          <t>27.93313952972568</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>134.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>125.8896697362264</t>
+          <t>125.48864555358887</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -3678,12 +3678,12 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>45.33790740511649</t>
+          <t>64.01348128060756</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>6.733342959118931</t>
+          <t>8.000842535671325</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>130.12718645731607</t>
+          <t>130.53192265828451</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3708,12 +3708,12 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>41.322547741428004</t>
+          <t>58.846175615518966</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>6.428261642265971</t>
+          <t>7.671126098267383</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
@@ -3728,109 +3728,109 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>147.30411932779538</t>
+          <t>112.56374451632091</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>113.0</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>553.2359159342657</t>
+          <t>647.8134762306611</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>23.520967580740926</t>
+          <t>25.45218018619743</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
           <t>130.0</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>164.0</t>
-        </is>
-      </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>153.41439866759652</t>
+          <t>116.51987508364934</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>153.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>707.8851362989894</t>
+          <t>824.6469341505051</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>26.606110882633512</t>
+          <t>28.716666487433827</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>133.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>130.03685296186111</t>
+          <t>82.44922299055692</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>871.5648338865565</t>
+          <t>1140.1716926448255</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>29.522276908913316</t>
+          <t>33.76642848518075</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>150.0</t>
+          <t>103.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D1-ga4</t>
+          <t>D4-ga20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>44.23702704222185</t>
+          <t>35.73568711231049</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17.682484866606337</t>
+          <t>17.509950745042765</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17.515682063865384</t>
+          <t>14.826798049917384</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.185174078083896</t>
+          <t>3.8505581478426456</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3855,404 +3855,404 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>97.66036665813363</t>
+          <t>143.55923087024024</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>628.3001268135562</t>
+          <t>2009.7083686463393</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>25.065915638842245</t>
+          <t>44.82977100818539</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>84.0</t>
+          <t>112.0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>175.0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>181.514844163117</t>
+          <t>167.29796244282366</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>179.0</t>
+          <t>169.0</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>497.666292331044</t>
+          <t>838.102182925039</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>22.308435452336052</t>
+          <t>28.949994523747996</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>167.0</t>
+          <t>144.0</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>190.0</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>157.72130242287182</t>
+          <t>135.03392697244055</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>1133.378767784794</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>33.66569125660119</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>124.39187622070312</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>105.67398327992608</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>10.279785176740129</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>131.5215384165446</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>97.34650951580171</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>9.866433474959516</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>129.2397006038435</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>941.8697558637177</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>30.689896641463584</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
           <t>153.0</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>627.2485987559955</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>25.044931598149667</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>177.0</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>124.4005651473999</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>77.60302075553871</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>8.809257673353567</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>131.3976256052653</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>64.62705076382015</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>8.039095145837008</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>150.4057222468297</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>146.0</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>515.6080079044099</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>22.707003499017873</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>135.0</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>167.0</t>
-        </is>
-      </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>157.08288535798678</t>
+          <t>134.04229200309192</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>666.3161093477997</t>
+          <t>1197.0391334531646</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>25.81309956878096</t>
+          <t>34.598253329513106</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>138.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>129.0581493138416</t>
+          <t>91.04342979012166</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>801.0440029040475</t>
+          <t>1742.9932642274482</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>28.302720768577135</t>
+          <t>41.74917082083725</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>119.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D5-ga8</t>
+          <t>D5-ga24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27.0278293135436</t>
+          <t>29.998013530481064</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13.51604328070755</t>
+          <t>14.73226817549528</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21.792209937581163</t>
+          <t>14.800999206746301</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.668212713403403</t>
+          <t>3.847206675855393</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>200.79137292942275</t>
+          <t>163.9467387920299</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>207.0</t>
+          <t>166.0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2056.137428214971</t>
+          <t>3184.8732658796735</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>45.34465159437187</t>
+          <t>56.434681410278856</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>240.0</t>
+          <t>212.0</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>107.33225078136218</t>
+          <t>118.26502632310974</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>121.0</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>957.3198062024021</t>
+          <t>675.7696614220428</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>30.94058509793249</t>
+          <t>25.995570034566327</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>138.0</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>72.8213667040417</t>
+          <t>88.81989275006954</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1086.0849232686103</t>
+          <t>826.583071408091</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>32.955802573577394</t>
+          <t>28.750357761393005</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>110.0</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>125.63858032226562</t>
+          <t>116.82954338680439</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>56.476498873593904</t>
+          <t>141.71848498834402</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>7.515084754917532</t>
+          <t>11.904557320133497</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -4262,22 +4262,22 @@
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>131.14692974090576</t>
+          <t>141.70844477887607</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>143.0</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>93.63746895053286</t>
+          <t>200.00809265602135</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>9.676645542259614</t>
+          <t>14.14242173943421</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
@@ -4287,516 +4287,516 @@
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>72.0436249094903</t>
+          <t>86.4585578438746</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>899.5425726442807</t>
+          <t>712.7858818388779</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>29.99237524178905</t>
+          <t>26.69805015050496</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>107.0</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>70.64786610980927</t>
+          <t>87.19262489311066</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>1147.0375810068174</t>
+          <t>854.960858313979</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>33.86794326508206</t>
+          <t>29.239713718057825</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>109.0</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>35.06658152899518</t>
+          <t>55.86844626685761</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>1322.4406745142999</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>36.36537741471</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
           <t>26.0</t>
         </is>
       </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>1194.6529773908724</t>
-        </is>
-      </c>
-      <c r="BB14" t="inlineStr">
-        <is>
-          <t>34.5637523627119</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>86.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D3-ga23</t>
+          <t>D5-ga5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>31.541537827252114</t>
+          <t>38.62573789846517</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16.738768943822883</t>
+          <t>12.603765514017912</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18.908700332465504</t>
+          <t>20.309685347658828</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.348413542024896</t>
+          <t>4.506626825870856</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>104.6488718606044</t>
+          <t>215.9487987518855</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>102.0</t>
+          <t>240.0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1387.4676542487753</t>
+          <t>2602.9184277422323</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>37.24872688091199</t>
+          <t>51.018804648308176</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>198.0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>252.0</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>182.69561120644158</t>
+          <t>112.42243961402143</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>184.0</t>
+          <t>116.0</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>605.0916115802452</t>
+          <t>1419.7863990061824</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>24.59860995219537</t>
+          <t>37.68005306533129</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>201.0</t>
+          <t>139.0</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>156.58526826545528</t>
+          <t>71.54635840281904</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>1272.6062823995844</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>35.67360764486239</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>118.00926911470395</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>191.68659913556496</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>13.84509296233019</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>142.47143781772314</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>382.76269762577897</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>19.564322058936234</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
           <t>159.0</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>807.3982340355473</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>28.41475380916659</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>133.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>178.0</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>116.57392084958916</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>201.11730439220088</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>14.181583282278494</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>139.28720358100304</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>151.6190122722358</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>12.31336721909307</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>151.0</t>
-        </is>
-      </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>149.6129168635448</t>
+          <t>71.83132900370818</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>678.8758202117983</t>
+          <t>1097.4621403308172</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>26.055245541191862</t>
+          <t>33.127966136344945</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>169.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>155.7459263496169</t>
+          <t>68.69066808711152</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>158.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>848.2329798698559</t>
+          <t>1313.5939615929535</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>29.124439563189124</t>
+          <t>36.24353682510792</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>178.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>125.6004631126364</t>
+          <t>29.503290525090765</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="BA15" t="inlineStr">
         <is>
-          <t>1407.491996834427</t>
+          <t>1506.2289675115285</t>
         </is>
       </c>
       <c r="BB15" t="inlineStr">
         <is>
-          <t>37.51655630297678</t>
+          <t>38.81016577536778</t>
         </is>
       </c>
       <c r="BC15" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="BD15" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>34.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D4-ga20</t>
+          <t>D5-ga8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>35.73568711231049</t>
+          <t>27.0278293135436</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17.509950745042765</t>
+          <t>13.51604328070755</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14.826798049917384</t>
+          <t>21.792209937581163</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.8505581478426456</t>
+          <t>4.668212713403403</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>143.55887297978563</t>
+          <t>200.7916787662727</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>207.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2009.6954393166625</t>
+          <t>2056.125300634302</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>44.8296268032276</t>
+          <t>45.34451786748098</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>173.0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>175.0</t>
+          <t>240.0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>167.29796244282366</t>
+          <t>107.33225078136218</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>169.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>838.102182925039</t>
+          <t>957.3198062024021</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>28.949994523747996</t>
+          <t>30.94058509793249</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>190.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>135.03407748686826</t>
+          <t>72.82118950362496</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>1133.3738415948674</t>
+          <t>1086.0822569164031</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>33.66561809316543</t>
+          <t>32.955762120096736</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>106.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>124.39188925425212</t>
+          <t>125.63857301076253</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>105.67321235046732</t>
+          <t>56.47679336012524</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>10.279747679319144</t>
+          <t>7.5151043479199435</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>131.52151997884116</t>
+          <t>131.14694786071777</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>97.3456570890782</t>
+          <t>93.63855494683484</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>9.866390276543807</t>
+          <t>9.676701656392783</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
@@ -4856,229 +4856,229 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>129.23985622045515</t>
+          <t>72.04345381943277</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>941.8629693136713</t>
+          <t>899.5399845295673</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>30.689786074745964</t>
+          <t>29.99233209554681</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>153.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>134.04242976205964</t>
+          <t>70.64769196457213</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>1197.034142050408</t>
+          <t>1147.0348156012583</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>34.59818119569883</t>
+          <t>33.86790243875841</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>46.0</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>91.04376653426499</t>
+          <t>35.06627295585571</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>1742.9844489037655</t>
+          <t>1194.6480414986315</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>41.749065245868266</t>
+          <t>34.563680959912695</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>44.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D1-ga14</t>
+          <t>D6-ga1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>28.77824628473979</t>
+          <t>27.71934558947546</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18.91200681842395</t>
+          <t>11.906167774704981</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18.615574789399158</t>
+          <t>17.7859794918116</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.314577011643107</t>
+          <t>4.217342705046817</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96.55415044936665</t>
+          <t>190.25381749961667</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>210.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1097.5708523159115</t>
+          <t>3941.7738181166387</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>33.12960688441551</t>
+          <t>62.78354735212593</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>246.0</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>172.1171286144387</t>
+          <t>103.3220521939789</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>173.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>602.6240719993863</t>
+          <t>1142.9514768033564</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>24.548402636411726</t>
+          <t>33.8075653782309</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>190.0</t>
+          <t>126.0</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>151.3998498170306</t>
+          <t>69.97119993814752</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>152.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>670.68821322316</t>
+          <t>1205.8515066770974</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>25.897648797200876</t>
+          <t>34.7253726643372</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>126.04481919606526</t>
+          <t>119.18569730321406</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -5088,17 +5088,17 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>46.60446166558746</t>
+          <t>130.64467691704542</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>6.826746052519272</t>
+          <t>11.429990241336403</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>111.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>129.63724835713705</t>
+          <t>141.41550211754816</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -5118,12 +5118,12 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>30.79283573493937</t>
+          <t>275.5543068784468</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>5.549129277187491</t>
+          <t>16.599828519549437</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
@@ -5133,234 +5133,234 @@
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>143.7799995769494</t>
+          <t>69.84457779733796</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>555.9638330275617</t>
+          <t>1051.0976695387105</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>23.578885321990132</t>
+          <t>32.4206364764591</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>151.1876088473986</t>
+          <t>67.50776427067598</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>709.7551319832503</t>
+          <t>1237.5847757475503</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>26.64122992624872</t>
+          <t>35.17932312804711</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>172.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>123.10793078891889</t>
+          <t>38.50015762831838</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>858.4113275289516</t>
+          <t>1820.4320458122784</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>29.29865743560533</t>
+          <t>42.666521369948576</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>143.0</t>
+          <t>50.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D4-ga19</t>
+          <t>D6-ga3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>29.915331421824927</t>
+          <t>28.674200258615844</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16.76663914722094</t>
+          <t>11.706119169749353</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18.46330489581544</t>
+          <t>21.947556853600602</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.29689479692201</t>
+          <t>4.684821966051709</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>14.0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>19.0</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>135.3803463440624</t>
+          <t>192.64572882545963</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>134.0</t>
+          <t>216.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1622.106970399562</t>
+          <t>3790.1090605524996</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>40.27538914026234</t>
+          <t>61.56386164425116</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>109.0</t>
+          <t>144.0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>247.0</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>144.48177857089746</t>
+          <t>95.92979220212962</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>145.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>626.2606784635723</t>
+          <t>1488.8012629203781</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>25.025200867596894</t>
+          <t>38.58498753298202</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>128.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>160.0</t>
+          <t>118.0</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>117.45208119562793</t>
+          <t>65.31988652010281</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>780.2514096399237</t>
+          <t>1554.6744333311651</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>27.932980679475</t>
+          <t>39.42936004212046</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>125.48865667978923</t>
+          <t>126.0880225499471</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -5370,12 +5370,12 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>64.01310769281541</t>
+          <t>36.09192911657707</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>8.000819188859063</t>
+          <t>6.007655875345813</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>130.53190898895264</t>
+          <t>130.9728275934855</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -5400,12 +5400,12 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>58.84541545595001</t>
+          <t>82.5941767324477</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>7.671076551302953</t>
+          <t>9.088133842128851</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -5420,378 +5420,2634 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>112.56386645847275</t>
+          <t>65.2451263310079</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>113.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>647.8059418948739</t>
+          <t>1351.4525777367026</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>25.4520321761323</t>
+          <t>36.76210790660272</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>116.52000594839765</t>
+          <t>63.01962089223426</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>116.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>824.638113406166</t>
+          <t>1595.5562402271241</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>28.716512904706345</t>
+          <t>39.94441438082581</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>82.44953528143357</t>
+          <t>37.29748646691721</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1140.1524930920891</t>
+          <t>1903.1562408519849</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>33.76614418455399</t>
+          <t>43.6251789778791</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>53.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D5-ga24</t>
+          <t>D6-ga6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29.998013530481064</t>
+          <t>32.67180150297033</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14.73226817549528</t>
+          <t>13.574227036101567</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14.800999206746301</t>
+          <t>18.96142463411891</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.847206675855393</t>
+          <t>4.354471797373237</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>163.946349626401</t>
+          <t>198.45540251102273</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>166.0</t>
+          <t>216.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3184.8668679014227</t>
+          <t>3065.350939921678</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>56.43462472544159</t>
+          <t>55.36561152847206</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>169.0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>212.0</t>
+          <t>244.0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>118.26502632310974</t>
+          <t>101.87692826351551</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1113.228351849192</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>33.36507682966116</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>69.82739020393795</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>1131.778434272783</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>33.64191484254104</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>119.17061315584378</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>140.8686787137252</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>11.868811175249405</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>139.80808559675583</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>235.62459843351016</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>15.350068352730881</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>69.01028985615024</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>982.8668969224806</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>31.35070807689167</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>67.80405149142182</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>1163.2046837517503</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>34.10578666079629</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>35.056322594240804</t>
+        </is>
+      </c>
+      <c r="AZ19" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>1497.0389668240239</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>38.6915878043797</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>white1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>437.4712617829501</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25.215815297466634</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.444869351947702</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.8560359242072073</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>33.346124170830564</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>187.94816573843954</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>13.709418869464875</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>180.61089651164596</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>8385.44071751582</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>91.57205205473895</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
           <t>121.0</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>675.7696614220428</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>25.995570034566327</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>175.9079001955212</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>7999.871667532073</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>89.4420016968095</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>124.80099561149692</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>28.505207969020066</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>5.339026874723526</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>129.5683164544753</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>6.3789830356590285</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>2.5256648700211652</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>166.30815946659797</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>7148.7047314201345</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>84.5500131958602</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="AR20" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>176.51920858206176</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="AU20" t="inlineStr">
+        <is>
+          <t>8014.95472824904</t>
+        </is>
+      </c>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>89.52627953985936</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>175.00129981181394</t>
+        </is>
+      </c>
+      <c r="AZ20" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>8068.114853025018</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>89.82268562576505</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>white2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>435.8330615992954</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>25.383335916452047</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.7445186211648602</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.6566588729019804</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>34.01140402984279</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>153.07406482345027</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>12.372310407658315</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>180.13972511706703</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>8617.57656013457</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>92.83090304491587</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>175.38165700437088</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>8218.720783835299</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>90.65716068703729</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
         <is>
           <t>102.0</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>138.0</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>88.8200859235754</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>826.5811705849128</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>28.75032470399096</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>110.0</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>116.8296035844991</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>124.62168511284722</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>29.243323279221876</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>5.4077096149129416</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>129.6326443142361</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>6.499422509434771</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>2.549396499063018</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>165.7730023705365</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>7347.715307520368</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>85.71881536465823</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>175.952375799271</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>8243.973313766315</t>
+        </is>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>90.79632874608045</t>
+        </is>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>173.89274821768126</t>
+        </is>
+      </c>
+      <c r="AZ21" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>8308.078997233917</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
+          <t>91.14866426467212</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>white3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>322.01315567549335</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>25.772020308287082</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1.7982247255419221</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.3409790175621399</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>36.60203301984782</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>123.57934320599273</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>11.116624631874224</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>230.52613023681153</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>3147.588376823215</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>56.103372241098086</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>223.7776838956734</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>2974.2629857690404</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>54.536803956310465</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>124.69400993441359</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>38.98233362142907</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>6.243583395889661</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>129.47925154320987</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>7.701448841818598</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>2.775148435997361</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>211.30248814037228</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>2651.7465012678645</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>51.49511143077432</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>224.6079574141357</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="AU22" t="inlineStr">
+        <is>
+          <t>2993.9276495755385</t>
+        </is>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>54.716794949773316</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>218.61295532790086</t>
+        </is>
+      </c>
+      <c r="AZ22" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>2936.2716601584652</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>54.18737546844712</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>white4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>335.8583234946871</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>25.79154436073654</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.8608207761032147</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.3641190476286205</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>34.859396556256904</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>131.9518668627086</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>11.48703037615504</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>224.7758808985783</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>4384.148862512632</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>66.21290555860415</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>218.59031297458512</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>4150.43046198647</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>64.42383457996326</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>125.46797526041667</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>30.557771676857122</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>5.52790843600517</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>129.13301070601852</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>6.045003223457911</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>2.4586588261607</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>206.45987640202733</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>3700.0941385004494</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>60.82839911176727</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>219.3220938596782</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>4177.08160365113</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>64.63034584195825</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>214.8440618091952</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>4091.240216412405</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>63.96280338143728</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>white5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>179.43306909540675</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>25.636163985948457</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.8882369325926789</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.3741313374611173</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>33.06306175546597</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>152.4747849149252</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>12.3480680640708</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>203.50158543963465</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>7307.322755144716</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>85.48287989501007</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>198.0732363203831</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>6934.877643630553</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>83.27591274570669</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>126.79689718364197</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>14.879365083178806</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>3.8573780062600562</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>128.55664110725309</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>3.137559773009267</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>1.77131583095993</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>187.1559698709975</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>6187.981244779047</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>78.66372254590452</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>198.67717336253648</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>6969.226362748072</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>83.48189242433398</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>195.98424509277172</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>6906.442949979754</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>83.10501158161134</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>white6</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>300.0210640730121</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>25.15106557476326</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4.760687655641711</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.1819000104591666</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>31.0969713627446</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>97.92256659498425</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>9.895583186198994</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>132.3933790816097</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>118.0</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>141.7173508056759</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>11.904509683547488</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>141.70834627355748</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>143.0</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>200.00484472901897</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>14.142306909730781</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>128.0</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>154.0</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>86.45874844173372</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>712.7836516361609</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>26.69800838332629</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>107.0</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>87.19279231014907</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>854.9597403490532</t>
-        </is>
-      </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>29.23969460081711</t>
-        </is>
-      </c>
-      <c r="AW19" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="AX19" t="inlineStr">
-        <is>
-          <t>109.0</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>55.868832613869344</t>
-        </is>
-      </c>
-      <c r="AZ19" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="BA19" t="inlineStr">
-        <is>
-          <t>1322.4344502274137</t>
-        </is>
-      </c>
-      <c r="BB19" t="inlineStr">
-        <is>
-          <t>36.36529183476208</t>
-        </is>
-      </c>
-      <c r="BC19" t="inlineStr">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>9695.873822633162</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>98.46762829800036</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>129.0733524570058</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>9252.583542449946</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>96.19035056828697</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>126.93480782214506</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>9.665235898156405</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>3.1088962507868296</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>128.53629472897376</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>2.2248509507505703</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>1.4915934267589712</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>122.05778937614129</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>8259.627302779869</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>90.88249172849449</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>129.4480617523539</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>9289.605441122652</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>96.38259926523382</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>128.8874658235976</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>9290.391602937392</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>96.38667751788829</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>white7</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>219.0020426903544</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25.721442440214556</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>26.0</t>
         </is>
       </c>
-      <c r="BD19" t="inlineStr">
-        <is>
-          <t>86.0</t>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.8211429279336122</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.3494972871160624</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>39.37102802542436</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>94.7195419668199</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>9.73239651713903</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>230.4475848776274</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2563.39949692203</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>50.6300256460732</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>223.20149499410445</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>2415.1320776891175</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>49.143993302224814</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>124.9958147665895</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>37.12290349076566</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>6.092856759416362</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>129.36775462962962</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>7.761865184006352</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>2.7860124163410243</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>210.67868936349376</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>2153.649189638118</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>46.407426018236755</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>224.0616196995786</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>2424.7998080691086</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>49.24225632593524</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>216.3694186160458</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>2374.253994237329</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>48.72631726528621</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>white8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>122.83180600063717</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>25.199309304902012</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3.0649359797705396</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.7506958558728982</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>33.77853030945478</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>196.38417385806022</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>14.013713778226677</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>175.06371617071238</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>10913.101957060184</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>104.465793239032</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>170.48879065110373</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>10327.157058535407</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>101.62262080135213</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>126.96455982349536</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>11.589171631813763</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>3.4042872428474307</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>128.50343135127315</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>2.681752789871687</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>1.6376058102827087</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>161.21136436175766</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>9225.095265229256</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>96.04735949118673</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>171.7278455223657</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>10306.601907412436</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>101.52143570405433</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>169.8915360877251</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>10144.392010634412</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>100.719372568709</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>240.0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>